--- a/ผลลัพธ์แบบสอบถาม1.xlsx
+++ b/ผลลัพธ์แบบสอบถาม1.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\อ.บุรินทร์\CPSC321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B136E1-FA37-43E5-B10E-88D4C41554F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4567B4DD-5120-484C-887A-8B99395971C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63E1D804-64BE-42D3-B9DD-49B6AEC0F883}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$I$4:$I$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$J$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$4:$J$7</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="72">
   <si>
     <t>พฤติกรรมการใช้คอมพิวเตอร์</t>
   </si>
@@ -311,7 +306,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -349,23 +350,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,10 +363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,11 +372,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12271,8 +12275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCFE374-4D4F-4BE0-9F22-47B17A29B1A8}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12289,503 +12293,517 @@
     <col min="21" max="21" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
     </row>
     <row r="2" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="1">
         <v>8</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="1">
         <v>46</v>
       </c>
       <c r="Q4" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="1">
         <v>14</v>
       </c>
       <c r="S4" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="1">
         <v>11</v>
       </c>
       <c r="U4" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>34</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="1">
         <v>8</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="1">
         <v>38</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="1">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="1">
         <v>21</v>
       </c>
       <c r="U5" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="9">
+      <c r="B6" s="11"/>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H6">
         <v>11</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="1">
         <v>16</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="1">
         <v>16</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="1">
         <v>34</v>
       </c>
       <c r="S6" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="1">
         <v>0</v>
       </c>
       <c r="U6" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="C7" s="9">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H7">
         <v>36</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1">
         <v>32</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
         <v>20</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="1">
         <v>2</v>
       </c>
       <c r="S7" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="1">
         <v>18</v>
       </c>
       <c r="U7" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="C8" s="9">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="1">
         <v>5</v>
       </c>
       <c r="O8" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="1">
         <v>0</v>
       </c>
       <c r="U8" t="s">
         <v>71</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="9">
         <v>50</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="O9" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="1">
         <v>3</v>
       </c>
       <c r="S9" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="S10" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="S11" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>5</v>
       </c>
       <c r="S12" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
